--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.27 fix 3</t>
+    <t xml:space="preserve">EA 23.28</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.65</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.65</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.74</t>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.82 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="133">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -306,6 +306,27 @@
   </si>
   <si>
     <t xml:space="preserve">テレシア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Griffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グリフィン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bunny1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バニーガール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bunny2</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -519,7 +540,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -540,10 +561,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -554,7 +575,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -568,14 +589,14 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
@@ -589,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -603,7 +624,7 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
@@ -617,10 +638,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -638,10 +659,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -659,10 +680,10 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -680,10 +701,10 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
@@ -701,10 +722,10 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
@@ -722,10 +743,10 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -743,10 +764,10 @@
         <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -764,10 +785,10 @@
         <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -785,10 +806,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
         <v>46</v>
@@ -806,10 +827,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
         <v>51</v>
@@ -827,10 +848,10 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
         <v>40</v>
@@ -848,10 +869,10 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
         <v>55</v>
@@ -869,10 +890,10 @@
         <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
         <v>58</v>
@@ -890,10 +911,10 @@
         <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
         <v>61</v>
@@ -911,10 +932,10 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
         <v>64</v>
@@ -932,10 +953,10 @@
         <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
         <v>67</v>
@@ -946,7 +967,7 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
         <v>69</v>
@@ -960,10 +981,10 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
         <v>72</v>
@@ -981,7 +1002,7 @@
         <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -995,10 +1016,10 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
         <v>76</v>
@@ -1016,10 +1037,10 @@
         <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
         <v>79</v>
@@ -1037,10 +1058,10 @@
         <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
@@ -1058,10 +1079,10 @@
         <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
         <v>85</v>
@@ -1079,10 +1100,10 @@
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
@@ -1100,10 +1121,10 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
         <v>89</v>
@@ -1121,10 +1142,10 @@
         <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
         <v>92</v>
@@ -1142,10 +1163,10 @@
         <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
         <v>95</v>
@@ -1157,6 +1178,60 @@
       <c r="H32"/>
       <c r="J32"/>
       <c r="K32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="J35"/>
+      <c r="K35"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K2"/>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.140</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.170</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="143">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -107,6 +107,9 @@
     <t xml:space="preserve">ケトル</t>
   </si>
   <si>
+    <t xml:space="preserve">kettle_eye</t>
+  </si>
+  <si>
     <t xml:space="preserve">quru</t>
   </si>
   <si>
@@ -327,6 +330,24 @@
   </si>
   <si>
     <t xml:space="preserve">bunny2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソリン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issizzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issizzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イスシズル</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -549,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -570,10 +591,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -584,7 +605,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -598,14 +619,14 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
@@ -619,10 +640,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -633,7 +654,7 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
@@ -647,10 +668,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -668,16 +689,13 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -686,19 +704,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -707,19 +725,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -728,19 +746,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -749,19 +767,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -770,19 +788,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -791,19 +809,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
         <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -815,16 +833,16 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -836,16 +854,16 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -854,19 +872,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
         <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -878,16 +896,16 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -896,19 +914,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
         <v>57</v>
-      </c>
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -917,19 +935,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
         <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -938,19 +956,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
         <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>65</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -959,62 +977,69 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
         <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" t="s">
-        <v>68</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="I22" t="s">
-        <v>135</v>
-      </c>
-      <c r="J22" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" t="s">
-        <v>70</v>
-      </c>
+      <c r="J22"/>
+      <c r="K22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="J23"/>
-      <c r="K23"/>
+      <c r="I23" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="J24"/>
@@ -1025,17 +1050,10 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" t="s">
-        <v>77</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="J25"/>
@@ -1043,19 +1061,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
         <v>78</v>
-      </c>
-      <c r="B26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" t="s">
-        <v>80</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -1064,19 +1082,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
         <v>81</v>
-      </c>
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" t="s">
-        <v>83</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -1085,19 +1103,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
         <v>84</v>
-      </c>
-      <c r="B28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -1106,19 +1124,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
         <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" t="s">
-        <v>86</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -1130,16 +1148,16 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -1148,19 +1166,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
         <v>91</v>
-      </c>
-      <c r="B31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" t="s">
-        <v>93</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -1169,19 +1187,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" t="s">
         <v>94</v>
-      </c>
-      <c r="B32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" t="s">
-        <v>96</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
@@ -1190,19 +1208,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
         <v>97</v>
-      </c>
-      <c r="B33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" t="s">
-        <v>99</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -1211,19 +1229,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" t="s">
         <v>100</v>
-      </c>
-      <c r="B34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" t="s">
-        <v>102</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -1232,24 +1250,81 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
         <v>103</v>
-      </c>
-      <c r="B35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" t="s">
-        <v>102</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
       <c r="J35"/>
       <c r="K35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="J38"/>
+      <c r="K38"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K2"/>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="149">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -348,6 +348,15 @@
   </si>
   <si>
     <t xml:space="preserve">イスシズル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vishnu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISHNU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTX-09</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -579,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -600,10 +609,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -614,7 +623,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -628,14 +637,14 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
@@ -649,10 +658,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -663,7 +672,7 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
@@ -677,10 +686,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -698,10 +707,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -719,10 +728,10 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
@@ -740,10 +749,10 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
@@ -761,10 +770,10 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -782,10 +791,10 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
@@ -803,10 +812,10 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
         <v>44</v>
@@ -824,10 +833,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -845,10 +854,10 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
@@ -866,10 +875,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -887,10 +896,10 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
         <v>52</v>
@@ -908,10 +917,10 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
@@ -929,10 +938,10 @@
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
         <v>56</v>
@@ -950,10 +959,10 @@
         <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
@@ -971,10 +980,10 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
         <v>62</v>
@@ -992,10 +1001,10 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
         <v>65</v>
@@ -1013,10 +1022,10 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
         <v>68</v>
@@ -1027,7 +1036,7 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J23" t="s">
         <v>70</v>
@@ -1041,10 +1050,10 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>
@@ -1062,7 +1071,7 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -1076,10 +1085,10 @@
         <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
         <v>77</v>
@@ -1097,10 +1106,10 @@
         <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
         <v>80</v>
@@ -1118,10 +1127,10 @@
         <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
         <v>83</v>
@@ -1139,10 +1148,10 @@
         <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
         <v>86</v>
@@ -1160,10 +1169,10 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
         <v>86</v>
@@ -1181,10 +1190,10 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
         <v>90</v>
@@ -1202,10 +1211,10 @@
         <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
         <v>93</v>
@@ -1223,10 +1232,10 @@
         <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
         <v>96</v>
@@ -1244,10 +1253,10 @@
         <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
         <v>99</v>
@@ -1265,10 +1274,10 @@
         <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
         <v>102</v>
@@ -1286,10 +1295,10 @@
         <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
         <v>102</v>
@@ -1307,10 +1316,10 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
         <v>106</v>
@@ -1328,10 +1337,10 @@
         <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
         <v>109</v>
@@ -1343,6 +1352,28 @@
       <c r="H38"/>
       <c r="J38"/>
       <c r="K38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="J39" t="s">
+        <v>113</v>
+      </c>
+      <c r="K39" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:K2"/>

--- a/Mod_Korean/Lang/KR/Game/Person.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Person.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">narrator</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
